--- a/inputs compound generator/inputs/resum_eliminacio.xlsx
+++ b/inputs compound generator/inputs/resum_eliminacio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064B75C6-E0F8-4B30-A9DA-9B9601E0D80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC4D6F-0759-402A-93ED-AA5CE27ACF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="10" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="353">
   <si>
     <t>Component </t>
   </si>
@@ -925,9 +925,6 @@
     <t>Antracè</t>
   </si>
   <si>
-    <t>Arsènic dissolt</t>
-  </si>
-  <si>
     <t>Atrazina</t>
   </si>
   <si>
@@ -1124,6 +1121,27 @@
   </si>
   <si>
     <t>2-etilhelix</t>
+  </si>
+  <si>
+    <t>Cadmi</t>
+  </si>
+  <si>
+    <t>Arsènic</t>
+  </si>
+  <si>
+    <t>Coure</t>
+  </si>
+  <si>
+    <t>Crom</t>
+  </si>
+  <si>
+    <t>Mercuri</t>
+  </si>
+  <si>
+    <t>Niquel</t>
+  </si>
+  <si>
+    <t>Plom</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,14 +1238,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1422,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,7 +1531,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1534,7 +1544,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1554,10 +1564,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8384,7 +8391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9C33F0-BAC0-4233-9376-C894F95770AC}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
@@ -10904,7 +10911,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A93" sqref="A2:A93"/>
+      <selection activeCell="A2" sqref="A2:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10961,7 +10968,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -11005,7 +11012,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11092,7 +11099,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -11106,7 +11113,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -11120,7 +11127,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -11134,7 +11141,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -11148,7 +11155,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -11162,7 +11169,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -11176,7 +11183,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -11204,7 +11211,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -11218,7 +11225,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -11232,7 +11239,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -11246,7 +11253,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -11260,7 +11267,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -11274,7 +11281,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -11288,7 +11295,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -11302,7 +11309,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -11316,7 +11323,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
@@ -11330,7 +11337,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -11344,7 +11351,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -11358,7 +11365,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -11372,7 +11379,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -11386,7 +11393,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -11400,7 +11407,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -11414,7 +11421,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -11428,7 +11435,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
@@ -11470,7 +11477,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -11484,7 +11491,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -11498,7 +11505,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -11554,7 +11561,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -11568,7 +11575,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -11582,7 +11589,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
@@ -11596,7 +11603,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -11610,7 +11617,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
@@ -11624,7 +11631,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -11638,7 +11645,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -11650,7 +11657,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -11664,7 +11671,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -11678,7 +11685,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -11692,7 +11699,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -11720,7 +11727,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -11734,7 +11741,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -11776,7 +11783,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -11790,7 +11797,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -11804,7 +11811,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
@@ -11818,7 +11825,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -11832,7 +11839,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
@@ -11846,7 +11853,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
@@ -11860,7 +11867,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -11888,7 +11895,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -11902,7 +11909,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -11916,7 +11923,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -11927,11 +11934,11 @@
       <c r="D70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="48"/>
+      <c r="E70" s="47"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
@@ -11945,7 +11952,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -11959,7 +11966,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
@@ -11973,7 +11980,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>23</v>
@@ -11987,7 +11994,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -12001,7 +12008,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>5</v>
@@ -12015,7 +12022,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
@@ -12029,7 +12036,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>23</v>
@@ -12043,7 +12050,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
@@ -12057,7 +12064,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
@@ -12071,7 +12078,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
@@ -12085,7 +12092,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -12099,7 +12106,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>10</v>
@@ -12113,7 +12120,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>23</v>
@@ -12127,7 +12134,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
@@ -12141,7 +12148,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -12155,7 +12162,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -12169,7 +12176,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -12183,7 +12190,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>10</v>
@@ -12197,7 +12204,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>23</v>
@@ -12211,7 +12218,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
@@ -12225,7 +12232,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
@@ -12239,7 +12246,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>5</v>
@@ -12320,7 +12327,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -12364,7 +12371,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -12452,7 +12459,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -12466,7 +12473,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -12480,7 +12487,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -12494,7 +12501,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -12508,7 +12515,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -12522,7 +12529,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -12536,7 +12543,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -12564,7 +12571,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -12578,7 +12585,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -12592,7 +12599,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -12606,7 +12613,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -12620,7 +12627,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -12632,7 +12639,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -12646,7 +12653,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -12660,7 +12667,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -12674,7 +12681,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>10</v>
@@ -12688,7 +12695,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -12702,7 +12709,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -12716,7 +12723,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -12730,7 +12737,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -12744,7 +12751,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -12758,7 +12765,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -12772,7 +12779,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -12786,7 +12793,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
@@ -12828,7 +12835,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -12842,7 +12849,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -12856,7 +12863,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -12912,7 +12919,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -12926,7 +12933,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -12940,7 +12947,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
@@ -12954,7 +12961,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -12968,7 +12975,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
@@ -12982,7 +12989,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>10</v>
@@ -12996,7 +13003,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -13008,7 +13015,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -13022,7 +13029,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -13036,7 +13043,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -13050,7 +13057,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -13078,7 +13085,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -13092,7 +13099,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -13134,7 +13141,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -13148,7 +13155,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -13162,7 +13169,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
@@ -13176,7 +13183,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -13190,7 +13197,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
@@ -13204,7 +13211,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
@@ -13218,7 +13225,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -13246,7 +13253,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -13260,7 +13267,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -13274,7 +13281,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -13288,7 +13295,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
@@ -13302,7 +13309,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -13316,7 +13323,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
@@ -13330,7 +13337,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>23</v>
@@ -13344,7 +13351,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -13358,7 +13365,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>5</v>
@@ -13372,7 +13379,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>10</v>
@@ -13386,7 +13393,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>23</v>
@@ -13400,7 +13407,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
@@ -13414,7 +13421,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
@@ -13428,7 +13435,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
@@ -13442,7 +13449,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -13456,7 +13463,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>10</v>
@@ -13470,7 +13477,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>23</v>
@@ -13484,7 +13491,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
@@ -13498,7 +13505,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -13512,7 +13519,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -13526,7 +13533,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -13540,7 +13547,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>10</v>
@@ -13554,7 +13561,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>23</v>
@@ -13568,7 +13575,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
@@ -13582,7 +13589,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
@@ -13596,7 +13603,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>5</v>
@@ -13618,7 +13625,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13666,7 +13673,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>120</v>
@@ -13710,7 +13717,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -13792,7 +13799,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>119</v>
@@ -13804,7 +13811,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>120</v>
@@ -13818,7 +13825,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>120</v>
@@ -13830,7 +13837,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>120</v>
@@ -13842,7 +13849,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>120</v>
@@ -13854,7 +13861,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>120</v>
@@ -13866,7 +13873,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>120</v>
@@ -13890,7 +13897,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>120</v>
@@ -13902,7 +13909,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>119</v>
@@ -13914,7 +13921,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>120</v>
@@ -13926,7 +13933,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>120</v>
@@ -13938,7 +13945,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>122</v>
@@ -13950,7 +13957,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>120</v>
@@ -13964,7 +13971,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>120</v>
@@ -13976,7 +13983,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>119</v>
@@ -13988,7 +13995,7 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>120</v>
@@ -14002,7 +14009,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>122</v>
@@ -14014,7 +14021,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>120</v>
@@ -14026,7 +14033,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>119</v>
@@ -14038,7 +14045,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>119</v>
@@ -14050,7 +14057,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>119</v>
@@ -14062,7 +14069,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>119</v>
@@ -14074,7 +14081,7 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>120</v>
@@ -14086,7 +14093,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>120</v>
@@ -14126,7 +14133,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>120</v>
@@ -14138,7 +14145,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>122</v>
@@ -14150,7 +14157,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>120</v>
@@ -14204,7 +14211,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>119</v>
@@ -14216,7 +14223,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>122</v>
@@ -14228,7 +14235,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>122</v>
@@ -14240,7 +14247,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>120</v>
@@ -14252,7 +14259,7 @@
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>119</v>
@@ -14264,7 +14271,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>120</v>
@@ -14278,7 +14285,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>120</v>
@@ -14290,7 +14297,7 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>120</v>
@@ -14304,7 +14311,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>120</v>
@@ -14316,7 +14323,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>120</v>
@@ -14328,7 +14335,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>120</v>
@@ -14352,7 +14359,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>120</v>
@@ -14364,7 +14371,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>122</v>
@@ -14404,7 +14411,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>120</v>
@@ -14416,7 +14423,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>122</v>
@@ -14428,7 +14435,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>122</v>
@@ -14440,7 +14447,7 @@
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>119</v>
@@ -14454,7 +14461,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>122</v>
@@ -14466,7 +14473,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>120</v>
@@ -14478,7 +14485,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>120</v>
@@ -14504,7 +14511,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>120</v>
@@ -14516,7 +14523,7 @@
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>120</v>
@@ -14530,7 +14537,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>122</v>
@@ -14542,7 +14549,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>120</v>
@@ -14554,7 +14561,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>120</v>
@@ -14566,7 +14573,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>120</v>
@@ -14578,7 +14585,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>122</v>
@@ -14590,7 +14597,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>120</v>
@@ -14602,7 +14609,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>119</v>
@@ -14614,7 +14621,7 @@
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>120</v>
@@ -14628,7 +14635,7 @@
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>122</v>
@@ -14642,7 +14649,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>122</v>
@@ -14654,7 +14661,7 @@
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>119</v>
@@ -14668,7 +14675,7 @@
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>120</v>
@@ -14682,7 +14689,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>120</v>
@@ -14694,7 +14701,7 @@
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>120</v>
@@ -14706,7 +14713,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>122</v>
@@ -14718,7 +14725,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>119</v>
@@ -14730,7 +14737,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>120</v>
@@ -14742,7 +14749,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>120</v>
@@ -14754,7 +14761,7 @@
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>120</v>
@@ -14766,7 +14773,7 @@
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>120</v>
@@ -14780,7 +14787,7 @@
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>122</v>
@@ -14792,7 +14799,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>122</v>
@@ -14806,7 +14813,7 @@
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>119</v>
@@ -14820,7 +14827,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>119</v>
@@ -14841,8 +14848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01BD480-2E08-4637-AC70-D250AE6373C8}">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A94"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14964,7 +14971,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>120</v>
@@ -15002,7 +15009,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -15168,7 +15175,7 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>119</v>
@@ -15187,7 +15194,7 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>120</v>
@@ -15239,7 +15246,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>120</v>
@@ -15278,7 +15285,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>120</v>
@@ -15326,7 +15333,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>120</v>
@@ -15345,7 +15352,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>120</v>
@@ -15361,7 +15368,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>120</v>
@@ -15393,7 +15400,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>120</v>
@@ -15409,7 +15416,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>119</v>
@@ -15425,7 +15432,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>120</v>
@@ -15441,7 +15448,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>120</v>
@@ -15457,7 +15464,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>122</v>
@@ -15499,7 +15506,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>120</v>
@@ -15515,7 +15522,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>120</v>
@@ -15531,7 +15538,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>119</v>
@@ -15547,7 +15554,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>120</v>
@@ -15586,7 +15593,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>122</v>
@@ -15602,7 +15609,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>120</v>
@@ -15618,7 +15625,7 @@
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>119</v>
@@ -15634,7 +15641,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>119</v>
@@ -15650,7 +15657,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>119</v>
@@ -15666,7 +15673,7 @@
     </row>
     <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>119</v>
@@ -15705,7 +15712,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>120</v>
@@ -15721,7 +15728,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>120</v>
@@ -15769,7 +15776,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>120</v>
@@ -15785,7 +15792,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>122</v>
@@ -15801,7 +15808,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>120</v>
@@ -15895,7 +15902,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>119</v>
@@ -15911,7 +15918,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>122</v>
@@ -15927,7 +15934,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>122</v>
@@ -15943,7 +15950,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>120</v>
@@ -15982,7 +15989,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>119</v>
@@ -15998,7 +16005,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>120</v>
@@ -16014,7 +16021,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>120</v>
@@ -16030,7 +16037,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>120</v>
@@ -16046,7 +16053,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>120</v>
@@ -16062,7 +16069,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>120</v>
@@ -16078,7 +16085,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>120</v>
@@ -16110,7 +16117,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>120</v>
@@ -16126,7 +16133,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>122</v>
@@ -16204,7 +16211,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>120</v>
@@ -16220,7 +16227,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>122</v>
@@ -16236,7 +16243,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>122</v>
@@ -16252,7 +16259,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>119</v>
@@ -16291,7 +16298,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>122</v>
@@ -16307,7 +16314,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>120</v>
@@ -16323,7 +16330,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>120</v>
@@ -16355,7 +16362,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>120</v>
@@ -16371,7 +16378,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>120</v>
@@ -16387,7 +16394,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>122</v>
@@ -16403,7 +16410,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>120</v>
@@ -16419,7 +16426,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>120</v>
@@ -16462,7 +16469,7 @@
     </row>
     <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>120</v>
@@ -16478,7 +16485,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>122</v>
@@ -16494,7 +16501,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>120</v>
@@ -16510,7 +16517,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>119</v>
@@ -16526,7 +16533,7 @@
     </row>
     <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>120</v>
@@ -16568,7 +16575,7 @@
     </row>
     <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>122</v>
@@ -16622,7 +16629,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>122</v>
@@ -16638,7 +16645,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>119</v>
@@ -16677,7 +16684,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>120</v>
@@ -16693,7 +16700,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>120</v>
@@ -16709,7 +16716,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>120</v>
@@ -16725,7 +16732,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>122</v>
@@ -16741,7 +16748,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>119</v>
@@ -16757,7 +16764,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>120</v>
@@ -16773,7 +16780,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>120</v>
@@ -16789,7 +16796,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>120</v>
@@ -16805,7 +16812,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>120</v>
@@ -16844,7 +16851,7 @@
     </row>
     <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>122</v>
@@ -16892,7 +16899,7 @@
     </row>
     <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>122</v>
@@ -16936,7 +16943,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>119</v>
@@ -16949,7 +16956,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>119</v>
@@ -16983,7 +16990,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17031,7 +17038,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>120</v>
@@ -17071,7 +17078,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -17149,7 +17156,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>119</v>
@@ -17161,7 +17168,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>120</v>
@@ -17173,7 +17180,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>120</v>
@@ -17185,7 +17192,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>120</v>
@@ -17197,7 +17204,7 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>120</v>
@@ -17209,7 +17216,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>120</v>
@@ -17221,7 +17228,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>120</v>
@@ -17245,7 +17252,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>120</v>
@@ -17257,7 +17264,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>119</v>
@@ -17269,7 +17276,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>120</v>
@@ -17281,7 +17288,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>120</v>
@@ -17293,7 +17300,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>122</v>
@@ -17305,7 +17312,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>120</v>
@@ -17317,7 +17324,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>120</v>
@@ -17329,7 +17336,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>119</v>
@@ -17341,7 +17348,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>120</v>
@@ -17353,7 +17360,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>122</v>
@@ -17365,7 +17372,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>120</v>
@@ -17377,7 +17384,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>119</v>
@@ -17389,7 +17396,7 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>119</v>
@@ -17401,7 +17408,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>119</v>
@@ -17413,7 +17420,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>119</v>
@@ -17425,7 +17432,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>120</v>
@@ -17437,7 +17444,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>120</v>
@@ -17473,7 +17480,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>120</v>
@@ -17485,7 +17492,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>122</v>
@@ -17497,7 +17504,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>120</v>
@@ -17545,7 +17552,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>119</v>
@@ -17557,7 +17564,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>122</v>
@@ -17569,7 +17576,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>122</v>
@@ -17581,7 +17588,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>120</v>
@@ -17593,7 +17600,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>119</v>
@@ -17605,7 +17612,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>120</v>
@@ -17617,7 +17624,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>120</v>
@@ -17629,7 +17636,7 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>120</v>
@@ -17641,7 +17648,7 @@
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>120</v>
@@ -17653,7 +17660,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>120</v>
@@ -17665,7 +17672,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>120</v>
@@ -17689,7 +17696,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>120</v>
@@ -17701,7 +17708,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>122</v>
@@ -17737,7 +17744,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>120</v>
@@ -17749,7 +17756,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>122</v>
@@ -17761,7 +17768,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>122</v>
@@ -17773,7 +17780,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>119</v>
@@ -17785,7 +17792,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>122</v>
@@ -17797,7 +17804,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>120</v>
@@ -17809,7 +17816,7 @@
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>120</v>
@@ -17833,7 +17840,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>120</v>
@@ -17845,7 +17852,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>120</v>
@@ -17857,7 +17864,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>122</v>
@@ -17869,7 +17876,7 @@
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>120</v>
@@ -17881,7 +17888,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>120</v>
@@ -17893,7 +17900,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>120</v>
@@ -17905,7 +17912,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>122</v>
@@ -17917,7 +17924,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>120</v>
@@ -17929,7 +17936,7 @@
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>119</v>
@@ -17941,7 +17948,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>120</v>
@@ -17953,7 +17960,7 @@
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>122</v>
@@ -17965,7 +17972,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>122</v>
@@ -17977,7 +17984,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>119</v>
@@ -17989,7 +17996,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>120</v>
@@ -18001,7 +18008,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>120</v>
@@ -18013,7 +18020,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>120</v>
@@ -18025,7 +18032,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>122</v>
@@ -18037,7 +18044,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>119</v>
@@ -18049,7 +18056,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>120</v>
@@ -18061,7 +18068,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>120</v>
@@ -18073,7 +18080,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>120</v>
@@ -18085,7 +18092,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>120</v>
@@ -18097,7 +18104,7 @@
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>122</v>
@@ -18109,7 +18116,7 @@
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>122</v>
@@ -18121,7 +18128,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>119</v>
@@ -18133,7 +18140,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>119</v>
@@ -18205,7 +18212,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>120</v>
@@ -18249,7 +18256,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -18327,7 +18334,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>119</v>
@@ -18339,7 +18346,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>120</v>
@@ -18351,7 +18358,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>120</v>
@@ -18365,7 +18372,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>120</v>
@@ -18377,7 +18384,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>120</v>
@@ -18389,7 +18396,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>120</v>
@@ -18401,7 +18408,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>120</v>
@@ -18425,7 +18432,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>120</v>
@@ -18437,7 +18444,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>119</v>
@@ -18449,7 +18456,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>120</v>
@@ -18461,7 +18468,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>120</v>
@@ -18473,7 +18480,7 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>122</v>
@@ -18485,7 +18492,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>120</v>
@@ -18497,7 +18504,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>120</v>
@@ -18509,7 +18516,7 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>119</v>
@@ -18523,7 +18530,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>120</v>
@@ -18535,7 +18542,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>122</v>
@@ -18547,7 +18554,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>120</v>
@@ -18559,7 +18566,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>119</v>
@@ -18571,7 +18578,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>119</v>
@@ -18583,7 +18590,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>119</v>
@@ -18595,7 +18602,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>119</v>
@@ -18607,7 +18614,7 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>120</v>
@@ -18621,7 +18628,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>120</v>
@@ -18657,7 +18664,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>120</v>
@@ -18669,7 +18676,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>122</v>
@@ -18681,7 +18688,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>120</v>
@@ -18729,7 +18736,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>119</v>
@@ -18741,7 +18748,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>122</v>
@@ -18753,7 +18760,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>122</v>
@@ -18765,7 +18772,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>120</v>
@@ -18777,7 +18784,7 @@
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>119</v>
@@ -18791,7 +18798,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>120</v>
@@ -18803,7 +18810,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>120</v>
@@ -18815,7 +18822,7 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>120</v>
@@ -18829,7 +18836,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>120</v>
@@ -18841,7 +18848,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>120</v>
@@ -18853,7 +18860,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>120</v>
@@ -18877,7 +18884,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>120</v>
@@ -18889,7 +18896,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>122</v>
@@ -18925,7 +18932,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>120</v>
@@ -18937,7 +18944,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>122</v>
@@ -18949,7 +18956,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>122</v>
@@ -18961,7 +18968,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>119</v>
@@ -18973,7 +18980,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>122</v>
@@ -18985,7 +18992,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>120</v>
@@ -18997,7 +19004,7 @@
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>120</v>
@@ -19025,7 +19032,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>120</v>
@@ -19037,7 +19044,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>120</v>
@@ -19049,7 +19056,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>122</v>
@@ -19061,7 +19068,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>120</v>
@@ -19073,7 +19080,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>120</v>
@@ -19085,7 +19092,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>120</v>
@@ -19097,7 +19104,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>122</v>
@@ -19109,7 +19116,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>120</v>
@@ -19121,7 +19128,7 @@
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>119</v>
@@ -19135,7 +19142,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>120</v>
@@ -19147,7 +19154,7 @@
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>122</v>
@@ -19161,7 +19168,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>122</v>
@@ -19173,7 +19180,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>119</v>
@@ -19185,7 +19192,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>120</v>
@@ -19197,7 +19204,7 @@
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>120</v>
@@ -19211,7 +19218,7 @@
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>120</v>
@@ -19225,7 +19232,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>122</v>
@@ -19237,7 +19244,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>119</v>
@@ -19249,7 +19256,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>120</v>
@@ -19261,7 +19268,7 @@
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>120</v>
@@ -19275,7 +19282,7 @@
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>120</v>
@@ -19289,7 +19296,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>120</v>
@@ -19301,7 +19308,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>122</v>
@@ -19313,7 +19320,7 @@
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>122</v>
@@ -19327,7 +19334,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>119</v>
@@ -19339,7 +19346,7 @@
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>119</v>
@@ -19360,8 +19367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D40D3-76FC-4997-8209-D01D0F26B417}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19410,7 +19417,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>120</v>
@@ -19454,7 +19461,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -19534,7 +19541,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>119</v>
@@ -19546,7 +19553,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>120</v>
@@ -19560,7 +19567,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>120</v>
@@ -19572,7 +19579,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>120</v>
@@ -19584,7 +19591,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>120</v>
@@ -19596,7 +19603,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>120</v>
@@ -19608,7 +19615,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>120</v>
@@ -19632,7 +19639,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>120</v>
@@ -19644,7 +19651,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>119</v>
@@ -19656,7 +19663,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>120</v>
@@ -19668,7 +19675,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>120</v>
@@ -19680,7 +19687,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>122</v>
@@ -19692,7 +19699,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>120</v>
@@ -19704,7 +19711,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>120</v>
@@ -19716,7 +19723,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>119</v>
@@ -19728,7 +19735,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>120</v>
@@ -19740,7 +19747,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>122</v>
@@ -19752,7 +19759,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>120</v>
@@ -19764,7 +19771,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>119</v>
@@ -19776,7 +19783,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>119</v>
@@ -19788,7 +19795,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>119</v>
@@ -19800,7 +19807,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>119</v>
@@ -19812,7 +19819,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>120</v>
@@ -19824,7 +19831,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>120</v>
@@ -19860,7 +19867,7 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>120</v>
@@ -19874,7 +19881,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>122</v>
@@ -19886,7 +19893,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>120</v>
@@ -19936,7 +19943,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>119</v>
@@ -19948,7 +19955,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>122</v>
@@ -19960,7 +19967,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>122</v>
@@ -19972,7 +19979,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>120</v>
@@ -19984,7 +19991,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>119</v>
@@ -19996,7 +20003,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>120</v>
@@ -20008,7 +20015,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>120</v>
@@ -20020,7 +20027,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>120</v>
@@ -20032,7 +20039,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>120</v>
@@ -20044,7 +20051,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>120</v>
@@ -20056,7 +20063,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>120</v>
@@ -20080,7 +20087,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>120</v>
@@ -20092,7 +20099,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>122</v>
@@ -20128,7 +20135,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>120</v>
@@ -20140,7 +20147,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>122</v>
@@ -20152,7 +20159,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>122</v>
@@ -20164,7 +20171,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>119</v>
@@ -20176,7 +20183,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>122</v>
@@ -20188,7 +20195,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>120</v>
@@ -20200,7 +20207,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>120</v>
@@ -20224,7 +20231,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>120</v>
@@ -20236,7 +20243,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>120</v>
@@ -20248,7 +20255,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>122</v>
@@ -20260,7 +20267,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>120</v>
@@ -20272,7 +20279,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>120</v>
@@ -20284,7 +20291,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>120</v>
@@ -20296,7 +20303,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>122</v>
@@ -20308,7 +20315,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>120</v>
@@ -20320,7 +20327,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>119</v>
@@ -20332,7 +20339,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>120</v>
@@ -20344,7 +20351,7 @@
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>122</v>
@@ -20358,7 +20365,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>122</v>
@@ -20370,7 +20377,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>119</v>
@@ -20382,7 +20389,7 @@
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>120</v>
@@ -20396,7 +20403,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>120</v>
@@ -20408,7 +20415,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>120</v>
@@ -20420,7 +20427,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>122</v>
@@ -20432,7 +20439,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>119</v>
@@ -20444,7 +20451,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>120</v>
@@ -20456,7 +20463,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>120</v>
@@ -20468,7 +20475,7 @@
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>120</v>
@@ -20482,7 +20489,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>120</v>
@@ -20494,7 +20501,7 @@
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>122</v>
@@ -20508,7 +20515,7 @@
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>122</v>
@@ -20522,7 +20529,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>119</v>
@@ -20534,7 +20541,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>119</v>
@@ -20546,10 +20553,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5AD457E8C9A440B1EE1EBBE67BEAE9" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1681d7a76bbc9331dca75dcc7a1844c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb32b0a-6df1-4593-bf63-7f71602d9d10" xmlns:ns3="057d7b64-f508-48ef-9a0e-79d33157fe45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eaa9a041d9a665d8d4d682ffa5525419" ns2:_="" ns3:_="">
     <xsd:import namespace="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
@@ -20760,7 +20774,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20769,13 +20783,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE220382-91CA-4CD4-89F3-BD964718C2A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{721EA45E-63B2-4AE9-8450-584AE7A108B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20794,27 +20819,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DE53E5-4F62-42CF-A8F5-218F1F7D724C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE220382-91CA-4CD4-89F3-BD964718C2A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>